--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85318.41691554867</v>
+        <v>78903.38236704601</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9427692.440355759</v>
+        <v>9427692.440355761</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.1664245285792</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>375.9790740437535</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631583</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -803,7 +803,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>153.3187614035089</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>63.15068489140545</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>25.68008452176528</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -879,13 +879,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>73.74498359523473</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>153.6410155844009</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>172.2772000735444</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.87352675379921</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>48.26988917406528</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.81782733595056</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45108622360691</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>215.3364974916835</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>52.07140607624191</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.9606135828359</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5221469772661</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>185.0447695580643</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>49.41258657788105</v>
+        <v>49.41258657788106</v>
       </c>
       <c r="T12" t="n">
         <v>125.9672410405524</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>157.0104662520787</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>147.1022126635735</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8348570146258</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V13" t="n">
-        <v>212.0978597835738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.609587791059698</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>396.0716691005147</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>49.41258657788105</v>
+        <v>49.41258657788106</v>
       </c>
       <c r="T15" t="n">
         <v>125.9672410405524</v>
@@ -1767,16 +1767,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>159.6158662242028</v>
+        <v>190.7011655737565</v>
       </c>
       <c r="U16" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>13.14299707097864</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>298.5601114314522</v>
+        <v>395.8455477352675</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5070152299372</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>47.53279485652382</v>
+        <v>47.53279485652381</v>
       </c>
       <c r="T18" t="n">
         <v>125.5593240176651</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.2453314124761</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>108.9211633953362</v>
+        <v>240.4723384880691</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>215.6915143704244</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>28.20443920739676</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>346.6359425484315</v>
+        <v>395.8455477352675</v>
       </c>
       <c r="H20" t="n">
-        <v>270.4846835738957</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1326232836796</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.5070152299372</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>47.53279485652382</v>
+        <v>47.53279485652381</v>
       </c>
       <c r="T21" t="n">
         <v>125.5593240176651</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>149.8360731457423</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6110326951373</v>
+        <v>152.2997546300317</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>356.3141292052482</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>10.35076221460847</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
         <v>124.8306395731037</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>114.2435844806795</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>11.96377639543496</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -2617,13 +2617,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>196.9385539799572</v>
       </c>
       <c r="Y26" t="n">
-        <v>394.2562766583887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258704</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>224.285978493914</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>177.6968439934199</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>49.34995949258705</v>
+        <v>18.58065792654969</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3034,13 +3034,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>167.449065422569</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>186.0325948128212</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>49.34995949258705</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>29.71289223936198</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>248.9395529139703</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>252.4843751595152</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>51.77925078256498</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3505,19 +3505,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>149.6157531058528</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>8.542226964168243</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3663,19 +3663,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>30.54231102287983</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>58.91985631077862</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>11.90294272943409</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3640563204304</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>38.54731509585676</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>168.4257624077815</v>
+        <v>374.9977007303382</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>85.1488807209182</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.6241311954368</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>507.1378928932079</v>
+        <v>891.1070171270717</v>
       </c>
       <c r="C2" t="n">
-        <v>507.1378928932079</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D2" t="n">
-        <v>78.55621863047622</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>78.55621863047622</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>78.55621863047622</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4333,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4366,16 +4366,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X2" t="n">
-        <v>915.4240165935545</v>
+        <v>1317.406587611979</v>
       </c>
       <c r="Y2" t="n">
-        <v>507.1378928932079</v>
+        <v>1317.406587611979</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>838.3506954956167</v>
+        <v>232.4448594332978</v>
       </c>
       <c r="C4" t="n">
-        <v>838.3506954956167</v>
+        <v>59.88314791652277</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>59.88314791652277</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>59.88314791652277</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4500,7 +4500,7 @@
         <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>838.3506954956167</v>
+        <v>459.8645301191896</v>
       </c>
       <c r="Y4" t="n">
-        <v>838.3506954956167</v>
+        <v>232.4448594332978</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.6257189419966</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C5" t="n">
-        <v>863.6257189419966</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>863.6257189419966</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>863.6257189419966</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,49 +4570,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W5" t="n">
-        <v>1282.768182362686</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X5" t="n">
-        <v>863.6257189419966</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y5" t="n">
-        <v>863.6257189419966</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,34 +4634,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>851.8941960123195</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>679.3324844955445</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>513.4544916970672</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>513.4544916970672</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4734,10 +4734,10 @@
         <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4767,10 +4767,10 @@
         <v>1516.524240083786</v>
       </c>
       <c r="X7" t="n">
-        <v>1516.524240083786</v>
+        <v>1271.132485417198</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1043.712814731307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.5685620045878</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="C8" t="n">
-        <v>510.5685620045878</v>
+        <v>507.1378928932079</v>
       </c>
       <c r="D8" t="n">
-        <v>510.5685620045878</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E8" t="n">
-        <v>510.5685620045878</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F8" t="n">
-        <v>82.70113241379551</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>82.70113241379551</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
         <v>33.94366860160834</v>
@@ -4807,22 +4807,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4843,13 +4843,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>915.4240165935545</v>
       </c>
       <c r="Y8" t="n">
-        <v>510.5685620045878</v>
+        <v>507.1378928932079</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,22 +4886,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>538.3040381356291</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>538.3040381356291</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4962,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>67.00315850392299</v>
       </c>
       <c r="K10" t="n">
-        <v>120.5233537662982</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="L10" t="n">
-        <v>120.5233537662982</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>540.5762527112014</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>960.6291516561047</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1695.717686420208</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1536.476317718205</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1290.59687129666</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U10" t="n">
-        <v>1012.163870549765</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V10" t="n">
-        <v>725.2083624201957</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W10" t="n">
-        <v>453.1819580064872</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X10" t="n">
-        <v>453.1819580064872</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.7622873205955</v>
+        <v>730.1226568546163</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.4552822295715</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="C11" t="n">
-        <v>251.4552822295715</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D11" t="n">
-        <v>251.4552822295715</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E11" t="n">
-        <v>251.4552822295715</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F11" t="n">
-        <v>251.4552822295715</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
-        <v>251.4552822295715</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I11" t="n">
-        <v>85.02847154687562</v>
+        <v>85.02847154687592</v>
       </c>
       <c r="J11" t="n">
-        <v>198.3915302050083</v>
+        <v>198.3915302050088</v>
       </c>
       <c r="K11" t="n">
-        <v>368.2933687921386</v>
+        <v>368.2933687921389</v>
       </c>
       <c r="L11" t="n">
-        <v>579.0716233077371</v>
+        <v>579.0716233077376</v>
       </c>
       <c r="M11" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780563</v>
       </c>
       <c r="N11" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O11" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P11" t="n">
         <v>1469.044845016103</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1644.586050205425</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1430.484420323773</v>
       </c>
       <c r="U11" t="n">
-        <v>1438.070150305401</v>
+        <v>1430.484420323773</v>
       </c>
       <c r="V11" t="n">
-        <v>1075.453200239227</v>
+        <v>1067.867470257599</v>
       </c>
       <c r="W11" t="n">
-        <v>670.5977456502608</v>
+        <v>1067.867470257599</v>
       </c>
       <c r="X11" t="n">
-        <v>251.4552822295715</v>
+        <v>648.72500683691</v>
       </c>
       <c r="Y11" t="n">
-        <v>251.4552822295715</v>
+        <v>461.8110981924006</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J12" t="n">
-        <v>226.0853530607347</v>
+        <v>476.1060756401158</v>
       </c>
       <c r="K12" t="n">
-        <v>341.4848154687839</v>
+        <v>591.5055380481649</v>
       </c>
       <c r="L12" t="n">
-        <v>496.6536338545969</v>
+        <v>746.674356433978</v>
       </c>
       <c r="M12" t="n">
-        <v>677.7283260705026</v>
+        <v>927.7490486498837</v>
       </c>
       <c r="N12" t="n">
-        <v>863.5955265848006</v>
+        <v>1113.616249164182</v>
       </c>
       <c r="O12" t="n">
         <v>1283.648425529704</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>546.2867191875922</v>
+        <v>362.2981029085263</v>
       </c>
       <c r="C13" t="n">
-        <v>546.2867191875922</v>
+        <v>362.2981029085263</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4087263891149</v>
+        <v>362.2981029085263</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6507226398521</v>
+        <v>192.5400991592636</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>162.8821409933429</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K13" t="n">
-        <v>507.2490950837829</v>
+        <v>507.2490950837828</v>
       </c>
       <c r="L13" t="n">
-        <v>782.6184676270011</v>
+        <v>596.3240091008959</v>
       </c>
       <c r="M13" t="n">
-        <v>876.5354752335243</v>
+        <v>690.241016707419</v>
       </c>
       <c r="N13" t="n">
-        <v>968.2193463139978</v>
+        <v>1110.293915652322</v>
       </c>
       <c r="O13" t="n">
-        <v>1052.904240721364</v>
+        <v>1530.346814597226</v>
       </c>
       <c r="P13" t="n">
-        <v>1472.873691624791</v>
+        <v>1602.809371530311</v>
       </c>
       <c r="Q13" t="n">
         <v>1691.235784882888</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1548.595336480848</v>
       </c>
       <c r="T13" t="n">
-        <v>1697.183430080417</v>
+        <v>1305.327804142842</v>
       </c>
       <c r="U13" t="n">
-        <v>1697.183430080417</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.943167672767</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.916763259059</v>
+        <v>1026.928146979993</v>
       </c>
       <c r="X13" t="n">
-        <v>965.5250085924711</v>
+        <v>781.5363923134053</v>
       </c>
       <c r="Y13" t="n">
-        <v>738.1053379065793</v>
+        <v>554.1167216275135</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C14" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D14" t="n">
-        <v>33.94366860160834</v>
+        <v>462.52534286434</v>
       </c>
       <c r="E14" t="n">
         <v>33.94366860160834</v>
@@ -5275,55 +5275,55 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
-        <v>85.02847154687571</v>
+        <v>85.02847154687595</v>
       </c>
       <c r="J14" t="n">
-        <v>198.3915302050083</v>
+        <v>198.3915302050087</v>
       </c>
       <c r="K14" t="n">
-        <v>368.2933687921387</v>
+        <v>368.2933687921389</v>
       </c>
       <c r="L14" t="n">
-        <v>579.0716233077372</v>
+        <v>579.0716233077375</v>
       </c>
       <c r="M14" t="n">
-        <v>813.603044078056</v>
+        <v>813.6030440780562</v>
       </c>
       <c r="N14" t="n">
         <v>1051.92942843149</v>
       </c>
       <c r="O14" t="n">
-        <v>1276.974275035834</v>
+        <v>1276.974275035835</v>
       </c>
       <c r="P14" t="n">
         <v>1469.044845016103</v>
       </c>
       <c r="Q14" t="n">
-        <v>1613.281844096129</v>
+        <v>1613.28184409613</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1692.527280796519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1692.527280796519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1692.527280796519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>1692.527280796519</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W14" t="n">
-        <v>1287.671826207552</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="X14" t="n">
-        <v>868.5293627868627</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y14" t="n">
-        <v>460.2432390865162</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>84.61243668840937</v>
       </c>
       <c r="J15" t="n">
-        <v>476.1060756401154</v>
+        <v>476.1060756401158</v>
       </c>
       <c r="K15" t="n">
-        <v>591.5055380481646</v>
+        <v>591.5055380481649</v>
       </c>
       <c r="L15" t="n">
-        <v>746.6743564339777</v>
+        <v>746.674356433978</v>
       </c>
       <c r="M15" t="n">
-        <v>927.7490486498834</v>
+        <v>927.7490486498837</v>
       </c>
       <c r="N15" t="n">
-        <v>1113.616249164181</v>
+        <v>1113.616249164182</v>
       </c>
       <c r="O15" t="n">
         <v>1283.648425529704</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5436,10 +5436,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>162.8821409933429</v>
+        <v>162.8821409933428</v>
       </c>
       <c r="K16" t="n">
-        <v>507.2490950837829</v>
+        <v>507.2490950837828</v>
       </c>
       <c r="L16" t="n">
         <v>782.6184676270011</v>
@@ -5466,22 +5466,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.955282379202</v>
+        <v>1504.555990106926</v>
       </c>
       <c r="U16" t="n">
-        <v>1257.555625216353</v>
+        <v>1504.555990106926</v>
       </c>
       <c r="V16" t="n">
-        <v>970.6001170867833</v>
+        <v>1217.600481977356</v>
       </c>
       <c r="W16" t="n">
-        <v>698.5737126730747</v>
+        <v>1217.600481977356</v>
       </c>
       <c r="X16" t="n">
-        <v>453.1819580064872</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.7622873205955</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.2794795594934</v>
+        <v>1300.189771470592</v>
       </c>
       <c r="C17" t="n">
-        <v>340.2794795594934</v>
+        <v>1300.189771470592</v>
       </c>
       <c r="D17" t="n">
-        <v>340.2794795594934</v>
+        <v>1300.189771470592</v>
       </c>
       <c r="E17" t="n">
-        <v>340.2794795594934</v>
+        <v>866.4150266288871</v>
       </c>
       <c r="F17" t="n">
-        <v>340.2794795594934</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="G17" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="H17" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I17" t="n">
-        <v>97.00757514711304</v>
+        <v>97.00757514711296</v>
       </c>
       <c r="J17" t="n">
         <v>226.2636995360253</v>
       </c>
       <c r="K17" t="n">
-        <v>419.9851238013145</v>
+        <v>419.9851238013146</v>
       </c>
       <c r="L17" t="n">
-        <v>660.3136806225139</v>
+        <v>660.3136806225141</v>
       </c>
       <c r="M17" t="n">
-        <v>927.7255064415046</v>
+        <v>927.7255064415051</v>
       </c>
       <c r="N17" t="n">
-        <v>1199.464335172703</v>
+        <v>1199.464335172704</v>
       </c>
       <c r="O17" t="n">
-        <v>1456.059605537596</v>
+        <v>1456.059605537597</v>
       </c>
       <c r="P17" t="n">
-        <v>1675.057732252641</v>
+        <v>1675.057732252642</v>
       </c>
       <c r="Q17" t="n">
-        <v>1839.516205014869</v>
+        <v>1839.51620501487</v>
       </c>
       <c r="R17" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="S17" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="T17" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="U17" t="n">
-        <v>1935.18047133567</v>
+        <v>1676.082476153916</v>
       </c>
       <c r="V17" t="n">
-        <v>1572.563521269496</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="W17" t="n">
-        <v>1167.708066680529</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="X17" t="n">
-        <v>748.56560325984</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="Y17" t="n">
-        <v>340.2794795594934</v>
+        <v>1313.465526087742</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>156.9635939196401</v>
       </c>
       <c r="G18" t="n">
-        <v>72.40988389480597</v>
+        <v>72.40988389480599</v>
       </c>
       <c r="H18" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I18" t="n">
-        <v>92.82191738660246</v>
+        <v>92.82191738660249</v>
       </c>
       <c r="J18" t="n">
-        <v>169.8059795795392</v>
+        <v>326.1028317025091</v>
       </c>
       <c r="K18" t="n">
-        <v>301.3840037082867</v>
+        <v>457.6808558312566</v>
       </c>
       <c r="L18" t="n">
-        <v>478.3068948861025</v>
+        <v>634.6037470090725</v>
       </c>
       <c r="M18" t="n">
-        <v>684.7675639769502</v>
+        <v>841.0644160999204</v>
       </c>
       <c r="N18" t="n">
-        <v>896.6926326357383</v>
+        <v>1052.989484758709</v>
       </c>
       <c r="O18" t="n">
-        <v>1090.562667535707</v>
+        <v>1246.859519658678</v>
       </c>
       <c r="P18" t="n">
-        <v>1246.160462427127</v>
+        <v>1402.457314550098</v>
       </c>
       <c r="Q18" t="n">
         <v>1506.470319798844</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.5026456834885</v>
+        <v>723.6083715294724</v>
       </c>
       <c r="C19" t="n">
-        <v>715.9409341667134</v>
+        <v>551.0466600126973</v>
       </c>
       <c r="D19" t="n">
-        <v>550.0629413682361</v>
+        <v>385.16866721422</v>
       </c>
       <c r="E19" t="n">
-        <v>380.3049376189734</v>
+        <v>215.4106634649572</v>
       </c>
       <c r="F19" t="n">
-        <v>203.5978835807297</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="G19" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="H19" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I19" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="J19" t="n">
-        <v>173.5806212125349</v>
+        <v>173.580621212535</v>
       </c>
       <c r="K19" t="n">
-        <v>527.7064197746777</v>
+        <v>527.7064197746778</v>
       </c>
       <c r="L19" t="n">
-        <v>961.7531828962432</v>
+        <v>961.753182896244</v>
       </c>
       <c r="M19" t="n">
-        <v>1068.836994511027</v>
+        <v>1068.836994511028</v>
       </c>
       <c r="N19" t="n">
-        <v>1173.374592429699</v>
+        <v>1173.3745924297</v>
       </c>
       <c r="O19" t="n">
-        <v>1269.931984008117</v>
+        <v>1269.931984008118</v>
       </c>
       <c r="P19" t="n">
-        <v>1700.060407278643</v>
+        <v>1700.060407278644</v>
       </c>
       <c r="Q19" t="n">
-        <v>1925.456046423192</v>
+        <v>1925.456046423193</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="S19" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="T19" t="n">
-        <v>1825.159094168663</v>
+        <v>1692.27911932752</v>
       </c>
       <c r="U19" t="n">
-        <v>1825.159094168663</v>
+        <v>1692.27911932752</v>
       </c>
       <c r="V19" t="n">
-        <v>1825.159094168663</v>
+        <v>1405.32361119795</v>
       </c>
       <c r="W19" t="n">
-        <v>1553.132689754955</v>
+        <v>1133.297206784242</v>
       </c>
       <c r="X19" t="n">
-        <v>1307.740935088367</v>
+        <v>915.4269902484596</v>
       </c>
       <c r="Y19" t="n">
-        <v>1080.321264402476</v>
+        <v>915.4269902484596</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1100.200250043621</v>
+        <v>876.6900698546715</v>
       </c>
       <c r="C20" t="n">
-        <v>662.057777227044</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="D20" t="n">
-        <v>662.057777227044</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="E20" t="n">
-        <v>662.057777227044</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="F20" t="n">
-        <v>662.057777227044</v>
+        <v>438.5475970380948</v>
       </c>
       <c r="G20" t="n">
-        <v>311.9204615215576</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="H20" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I20" t="n">
-        <v>97.00757514711314</v>
+        <v>97.00757514711351</v>
       </c>
       <c r="J20" t="n">
-        <v>226.2636995360254</v>
+        <v>226.2636995360258</v>
       </c>
       <c r="K20" t="n">
-        <v>419.9851238013146</v>
+        <v>419.9851238013151</v>
       </c>
       <c r="L20" t="n">
-        <v>660.3136806225139</v>
+        <v>660.3136806225145</v>
       </c>
       <c r="M20" t="n">
-        <v>927.7255064415046</v>
+        <v>927.7255064415056</v>
       </c>
       <c r="N20" t="n">
-        <v>1199.464335172703</v>
+        <v>1199.464335172704</v>
       </c>
       <c r="O20" t="n">
-        <v>1456.059605537596</v>
+        <v>1456.059605537597</v>
       </c>
       <c r="P20" t="n">
-        <v>1675.057732252641</v>
+        <v>1675.057732252642</v>
       </c>
       <c r="Q20" t="n">
-        <v>1839.516205014869</v>
+        <v>1839.51620501487</v>
       </c>
       <c r="R20" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="S20" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="T20" t="n">
-        <v>1721.915195291549</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="U20" t="n">
-        <v>1462.817200109794</v>
+        <v>1676.082476153916</v>
       </c>
       <c r="V20" t="n">
-        <v>1100.200250043621</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="W20" t="n">
-        <v>1100.200250043621</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="X20" t="n">
-        <v>1100.200250043621</v>
+        <v>1313.465526087742</v>
       </c>
       <c r="Y20" t="n">
-        <v>1100.200250043621</v>
+        <v>905.1794023873955</v>
       </c>
     </row>
     <row r="21">
@@ -5822,25 +5822,25 @@
         <v>156.9635939196401</v>
       </c>
       <c r="G21" t="n">
-        <v>72.40988389480597</v>
+        <v>72.40988389480599</v>
       </c>
       <c r="H21" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I21" t="n">
-        <v>92.82191738660246</v>
+        <v>92.82191738660249</v>
       </c>
       <c r="J21" t="n">
-        <v>326.1028317025099</v>
+        <v>326.1028317025094</v>
       </c>
       <c r="K21" t="n">
-        <v>457.6808558312574</v>
+        <v>457.680855831257</v>
       </c>
       <c r="L21" t="n">
-        <v>634.6037470090732</v>
+        <v>634.6037470090729</v>
       </c>
       <c r="M21" t="n">
-        <v>841.064416099921</v>
+        <v>841.0644160999208</v>
       </c>
       <c r="N21" t="n">
         <v>1052.989484758709</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>553.8503677802096</v>
+        <v>557.730378730995</v>
       </c>
       <c r="C22" t="n">
-        <v>381.2886562634345</v>
+        <v>385.16866721422</v>
       </c>
       <c r="D22" t="n">
-        <v>215.4106634649572</v>
+        <v>385.16866721422</v>
       </c>
       <c r="E22" t="n">
         <v>215.4106634649572</v>
       </c>
       <c r="F22" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="G22" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="H22" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="I22" t="n">
-        <v>38.70360942671339</v>
+        <v>38.70360942671341</v>
       </c>
       <c r="J22" t="n">
-        <v>87.00093604784509</v>
+        <v>87.00093604784512</v>
       </c>
       <c r="K22" t="n">
-        <v>166.3682800388522</v>
+        <v>166.3682800388523</v>
       </c>
       <c r="L22" t="n">
-        <v>267.9311551271881</v>
+        <v>348.7601528760562</v>
       </c>
       <c r="M22" t="n">
-        <v>746.8883217827663</v>
+        <v>827.7173195316346</v>
       </c>
       <c r="N22" t="n">
-        <v>1225.845488438345</v>
+        <v>1306.674486187213</v>
       </c>
       <c r="O22" t="n">
-        <v>1322.402880016762</v>
+        <v>1785.631652842791</v>
       </c>
       <c r="P22" t="n">
-        <v>1752.531303287289</v>
+        <v>1868.253182142976</v>
       </c>
       <c r="Q22" t="n">
-        <v>1925.456046423192</v>
+        <v>1925.456046423193</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="S22" t="n">
-        <v>1935.18047133567</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="T22" t="n">
-        <v>1783.830902501586</v>
+        <v>1935.180471335671</v>
       </c>
       <c r="U22" t="n">
-        <v>1505.435919981246</v>
+        <v>1781.342335345739</v>
       </c>
       <c r="V22" t="n">
-        <v>1218.480411851676</v>
+        <v>1494.38682721617</v>
       </c>
       <c r="W22" t="n">
-        <v>1218.480411851676</v>
+        <v>1222.360422802461</v>
       </c>
       <c r="X22" t="n">
-        <v>973.0886571850886</v>
+        <v>976.9686681358739</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.6689864991968</v>
+        <v>749.5489974499822</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>885.0319878285612</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>457.164558237769</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>57.66186691724613</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>1484.630179849397</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X23" t="n">
-        <v>1484.630179849397</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y23" t="n">
-        <v>1076.34405614905</v>
+        <v>885.0319878285612</v>
       </c>
     </row>
     <row r="24">
@@ -6050,13 +6050,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
         <v>79.1492015823585</v>
@@ -6126,46 +6126,46 @@
         <v>471.655226289377</v>
       </c>
       <c r="C25" t="n">
-        <v>471.655226289377</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D25" t="n">
-        <v>356.2576662078826</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>299.093514772602</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>122.3864607343582</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092381</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.2588091910869</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="C26" t="n">
-        <v>483.1163363745102</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903078</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.639935903078</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1319.497472482389</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="Y26" t="n">
-        <v>921.2588091910869</v>
+        <v>882.6190276950331</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6360,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.0817647851425</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>443.5200532683674</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871986</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>358.0754347909404</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092384</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.320157362631</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
@@ -6414,10 +6414,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351144</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399887</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
         <v>1552.738213270317</v>
@@ -6429,7 +6429,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041296</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1934.02800696283</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C29" t="n">
-        <v>1495.885534146253</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>1059.975749320698</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>626.2010044789927</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>626.2010044789927</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>226.6983131584698</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,34 +6481,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2360.327577447737</v>
+        <v>673.2607362976736</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235863</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210686</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6563,13 +6563,13 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
         <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
         <v>1505.938530508979</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851425</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683674</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D31" t="n">
-        <v>443.5200532683674</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="E31" t="n">
-        <v>273.7620495191047</v>
+        <v>305.7772334908997</v>
       </c>
       <c r="F31" t="n">
-        <v>97.05499548086087</v>
+        <v>129.0701794526559</v>
       </c>
       <c r="G31" t="n">
-        <v>97.05499548086087</v>
+        <v>129.0701794526559</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092384</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362631</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041296</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F32" t="n">
         <v>47.20655154895475</v>
@@ -6697,22 +6697,22 @@
         <v>47.20655154895475</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O32" t="n">
         <v>1775.96950697326</v>
@@ -6721,31 +6721,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W32" t="n">
-        <v>2191.18710732393</v>
+        <v>1081.546859998021</v>
       </c>
       <c r="X32" t="n">
-        <v>2191.18710732393</v>
+        <v>893.635148065878</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="33">
@@ -6761,13 +6761,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
@@ -6788,7 +6788,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0817647851425</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C34" t="n">
-        <v>443.5200532683674</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D34" t="n">
-        <v>443.5200532683674</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E34" t="n">
-        <v>273.7620495191047</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F34" t="n">
-        <v>97.05499548086087</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G34" t="n">
-        <v>97.05499548086087</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
         <v>47.20655154895475</v>
@@ -6861,10 +6861,10 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>358.0754347909404</v>
+        <v>358.0754347909402</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092384</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M34" t="n">
         <v>1066.127311827553</v>
@@ -6891,19 +6891,19 @@
         <v>2118.080353351144</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399887</v>
+        <v>2088.067330887142</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1801.111822757573</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041296</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>446.7092428694776</v>
+        <v>298.66064540145</v>
       </c>
       <c r="C35" t="n">
-        <v>446.7092428694776</v>
+        <v>298.66064540145</v>
       </c>
       <c r="D35" t="n">
-        <v>446.7092428694776</v>
+        <v>298.66064540145</v>
       </c>
       <c r="E35" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895474</v>
@@ -6934,16 +6934,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2105.292855064388</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W35" t="n">
-        <v>1700.437400475421</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X35" t="n">
-        <v>1281.294937054732</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y35" t="n">
-        <v>873.0088133543854</v>
+        <v>724.9602158863578</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C37" t="n">
-        <v>471.655226289377</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D37" t="n">
-        <v>471.655226289377</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>471.655226289377</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>294.9481722511332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895474</v>
@@ -7098,19 +7098,19 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>2016.697670932566</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
         <v>2274.089213540314</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1934.028006962829</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="C38" t="n">
-        <v>1495.885534146253</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D38" t="n">
-        <v>1059.975749320697</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E38" t="n">
-        <v>626.2010044789922</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F38" t="n">
-        <v>198.3335748882</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1736.844493980454</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>1317.702030559765</v>
       </c>
       <c r="Y38" t="n">
-        <v>2360.327577447737</v>
+        <v>909.4159068594181</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C40" t="n">
-        <v>585.2309455701119</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D40" t="n">
-        <v>419.3529527716346</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>419.3529527716346</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
         <v>242.6458987333908</v>
@@ -7329,28 +7329,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>452.8273439782427</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>576.6981455965406</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1160.879221014856</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1591.04389249662</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>1345.652137830033</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1344.758510807007</v>
+        <v>458.7324173436534</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
         <v>47.20655154895474</v>
@@ -7408,16 +7408,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7444,19 +7444,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W41" t="n">
-        <v>2190.200544712604</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X41" t="n">
-        <v>1771.058081291915</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="Y41" t="n">
-        <v>1771.058081291915</v>
+        <v>885.0319878285612</v>
       </c>
     </row>
     <row r="42">
@@ -7548,46 +7548,46 @@
         <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>616.081764785142</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>577.1450828701352</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>407.3870791208724</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545215</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.331138940781</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M43" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N43" t="n">
-        <v>1364.4344430832</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1514.88554354214</v>
+        <v>695.7136592983153</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7648,25 +7648,25 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X44" t="n">
-        <v>1941.185114027048</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="Y44" t="n">
-        <v>1941.185114027048</v>
+        <v>1122.013229783223</v>
       </c>
     </row>
     <row r="45">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>133.2155219741246</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092378</v>
+        <v>862.0820538119945</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505238</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7839,19 +7839,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1973.653814855378</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1686.698306725809</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1686.698306725809</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1441.306552059221</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8148,10 +8148,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,7 +8218,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8382,13 +8382,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,10 +8455,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8534,25 +8534,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8768,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>74.70167196994015</v>
+        <v>327.2478563935574</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>252.546184423617</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>188.1762207334395</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>331.6858867317471</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>338.7555601389261</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>38.64353026142726</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.247856393557</v>
+        <v>327.2478563935574</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>188.1762207334395</v>
+        <v>188.1762207334397</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>157.8756082050201</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.8756082050209</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9327,7 +9327,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>335.8423111446765</v>
+        <v>335.8423111446771</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>157.875608205021</v>
+        <v>157.8756082050205</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>81.64545227158385</v>
       </c>
       <c r="M22" t="n">
-        <v>375.629651556358</v>
+        <v>375.6296515563582</v>
       </c>
       <c r="N22" t="n">
-        <v>378.2015845827338</v>
+        <v>378.2015845827341</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>386.2623990678389</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>116.8907867229156</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>45.75904403825075</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.27619576520652</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,7 +10050,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042872</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>69.27619576520652</v>
+        <v>69.27619576520635</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10749,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>158.2045317475399</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>252.4394223833804</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>177.1920849464594</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042867</v>
+        <v>175.7179764032072</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -22561,7 +22561,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>353.2174285343896</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22606,16 +22606,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>38.97196474272886</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22707,25 +22707,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>101.0685279790871</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2598989760961</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,10 +22755,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>360.0160644931762</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>247.1658844586761</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -22950,10 +22950,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.662783424316956</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>386.6771602235007</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23038,7 +23038,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>237.9689638371506</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>135.401385534542</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>19.75255685807493</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>396.0346945768795</v>
       </c>
       <c r="H11" t="n">
-        <v>57.0852861738706</v>
+        <v>272.4217836655541</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.07140607624191</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.9606135828359</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5221469772661</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>219.1584929052788</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>17.92951724578265</v>
       </c>
       <c r="G13" t="n">
         <v>163.3301761740106</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.1022126635735</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8348570146258</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.615660591221</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>71.98809326470001</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.46181828518222</v>
+        <v>52.07140607624191</v>
       </c>
       <c r="T14" t="n">
         <v>211.9606135828359</v>
@@ -23557,10 +23557,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>4.735230942562339</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.3301761740106</v>
@@ -23706,16 +23706,16 @@
         <v>147.1022126635735</v>
       </c>
       <c r="T16" t="n">
-        <v>81.21899079042294</v>
+        <v>50.13369144086931</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.615660591221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>408.89357770908</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>97.28543630381527</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>270.4846835738957</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.76122242300964</v>
+        <v>47.76122242300962</v>
       </c>
       <c r="T17" t="n">
         <v>211.1326232836796</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5070152299372</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.2453314124761</v>
       </c>
       <c r="H19" t="n">
         <v>132.3681513475155</v>
@@ -23943,22 +23943,22 @@
         <v>145.6235998648307</v>
       </c>
       <c r="T19" t="n">
-        <v>131.551175092733</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6110326951373</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>27.24632274949727</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>393.8321355726619</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>49.20960518683601</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>270.4846835738957</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.76122242300964</v>
+        <v>47.76122242300962</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1326232836796</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>145.6235998648307</v>
       </c>
       <c r="T22" t="n">
-        <v>90.63626534232684</v>
+        <v>240.4723384880691</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.3112780651055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.72244557481054</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>256.6735737269202</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>49.97562838981305</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>119.0568436190423</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>218.0124848065252</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.946985804954352</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779055</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>197.7505962861447</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>89.32749194810874</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>81.67066052189018</v>
+        <v>112.4399620879276</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>233.357834620508</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>228.9184439736612</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>81.67066052189018</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>245.8898733923824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25162,13 +25162,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>180.4974444793175</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25213,7 +25213,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>106.5064054059965</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.3145178010418</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>245.8919113014648</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>392.2646730789087</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>140.2937833787275</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>210.3862840587928</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>421.8581053589768</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25684,19 +25684,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>272.4428437226466</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>125.6718977746358</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>265.3352856806295</v>
+        <v>58.76334735807268</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>82.91154299085191</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.52134278359603</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>361827.3098586953</v>
+        <v>361827.3098586954</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>318916.8896403402</v>
+        <v>318916.8896403403</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>348791.1122321996</v>
+        <v>348791.1122321998</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>402157.0667637733</v>
+        <v>402157.0667637732</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402157.0667637733</v>
+        <v>402157.0667637732</v>
       </c>
     </row>
   </sheetData>
@@ -26322,16 +26322,16 @@
         <v>120202.3375620735</v>
       </c>
       <c r="E2" t="n">
-        <v>122987.9926274999</v>
+        <v>122987.9926275</v>
       </c>
       <c r="F2" t="n">
         <v>122987.9926275</v>
       </c>
       <c r="G2" t="n">
-        <v>135301.4213795762</v>
+        <v>135301.4213795763</v>
       </c>
       <c r="H2" t="n">
-        <v>135301.4213795762</v>
+        <v>135301.4213795763</v>
       </c>
       <c r="I2" t="n">
         <v>157297.5713008174</v>
@@ -26355,7 +26355,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="P2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>269624.5963308968</v>
+        <v>269624.5963308967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52888.83336114322</v>
+        <v>52888.83336114351</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91531.29353731041</v>
+        <v>91531.29353731018</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14318.55649377943</v>
+        <v>14318.55649377951</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61689.39474923273</v>
+        <v>61689.39474923272</v>
       </c>
       <c r="C4" t="n">
-        <v>61689.39474923271</v>
+        <v>61689.39474923272</v>
       </c>
       <c r="D4" t="n">
         <v>61689.39474923272</v>
       </c>
       <c r="E4" t="n">
-        <v>11813.27564997763</v>
+        <v>11813.27564997764</v>
       </c>
       <c r="F4" t="n">
-        <v>11813.27564997763</v>
+        <v>11813.27564997764</v>
       </c>
       <c r="G4" t="n">
         <v>10940.31864194501</v>
@@ -26444,22 +26444,22 @@
         <v>9380.907887223584</v>
       </c>
       <c r="K4" t="n">
-        <v>9380.907887223586</v>
+        <v>9380.907887223584</v>
       </c>
       <c r="L4" t="n">
         <v>9380.907887223584</v>
       </c>
       <c r="M4" t="n">
+        <v>9380.907887223582</v>
+      </c>
+      <c r="N4" t="n">
         <v>9380.907887223584</v>
       </c>
-      <c r="N4" t="n">
-        <v>9380.907887223582</v>
-      </c>
       <c r="O4" t="n">
-        <v>9380.907887223582</v>
+        <v>9380.907887223584</v>
       </c>
       <c r="P4" t="n">
-        <v>9380.907887223584</v>
+        <v>9380.907887223586</v>
       </c>
     </row>
     <row r="5">
@@ -26484,19 +26484,19 @@
         <v>33113.33731766298</v>
       </c>
       <c r="G5" t="n">
-        <v>37756.58838009401</v>
+        <v>37756.58838009403</v>
       </c>
       <c r="H5" t="n">
-        <v>37756.58838009401</v>
+        <v>37756.58838009402</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963783</v>
@@ -26505,7 +26505,7 @@
         <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-143103.1459840914</v>
+        <v>-143842.5025960071</v>
       </c>
       <c r="C6" t="n">
-        <v>-911.8453243815384</v>
+        <v>-1651.20193629717</v>
       </c>
       <c r="D6" t="n">
-        <v>-911.8453243815311</v>
+        <v>-1651.201936297214</v>
       </c>
       <c r="E6" t="n">
-        <v>-191563.2166710375</v>
+        <v>-192288.6450076259</v>
       </c>
       <c r="F6" t="n">
-        <v>78061.37965985935</v>
+        <v>77335.95132327083</v>
       </c>
       <c r="G6" t="n">
-        <v>33715.680996394</v>
+        <v>33051.81980356561</v>
       </c>
       <c r="H6" t="n">
-        <v>86604.51435753719</v>
+        <v>85940.65316470912</v>
       </c>
       <c r="I6" t="n">
-        <v>10334.28866664557</v>
+        <v>9780.408223423872</v>
       </c>
       <c r="J6" t="n">
-        <v>-9148.883141034166</v>
+        <v>-9702.763584256159</v>
       </c>
       <c r="K6" t="n">
-        <v>101865.582203956</v>
+        <v>101311.7017607341</v>
       </c>
       <c r="L6" t="n">
-        <v>101865.582203956</v>
+        <v>101311.7017607341</v>
       </c>
       <c r="M6" t="n">
-        <v>101865.582203956</v>
+        <v>101311.701760734</v>
       </c>
       <c r="N6" t="n">
-        <v>101865.582203956</v>
+        <v>101311.701760734</v>
       </c>
       <c r="O6" t="n">
-        <v>87547.02571017662</v>
+        <v>86993.14526695453</v>
       </c>
       <c r="P6" t="n">
-        <v>101865.582203956</v>
+        <v>101311.701760734</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>335.6031734147081</v>
       </c>
       <c r="G3" t="n">
-        <v>382.6534502656802</v>
+        <v>382.6534502656805</v>
       </c>
       <c r="H3" t="n">
-        <v>382.6534502656802</v>
+        <v>382.6534502656804</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26804,19 +26804,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="G4" t="n">
-        <v>483.7951178339174</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="H4" t="n">
-        <v>483.7951178339174</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619344</v>
@@ -26825,7 +26825,7 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47.05027685097212</v>
+        <v>47.05027685097241</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>84.04847782754098</v>
+        <v>84.04847782754075</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.49926031381307</v>
+        <v>59.49926031381329</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2867765280168</v>
+        <v>106.2867765280166</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381307</v>
+        <v>59.49926031381341</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>59.49926031381307</v>
+        <v>59.49926031381329</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31770,10 +31770,10 @@
         <v>212.9073277935339</v>
       </c>
       <c r="M11" t="n">
-        <v>236.9004250205241</v>
+        <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691253</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O11" t="n">
         <v>227.318026873075</v>
@@ -31785,7 +31785,7 @@
         <v>145.6939384646736</v>
       </c>
       <c r="R11" t="n">
-        <v>84.74907675180567</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S11" t="n">
         <v>30.74394900175945</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7218634296089949</v>
+        <v>0.7218634296089947</v>
       </c>
       <c r="H12" t="n">
-        <v>6.971681017539504</v>
+        <v>6.971681017539503</v>
       </c>
       <c r="I12" t="n">
-        <v>24.85363123873075</v>
+        <v>24.85363123873074</v>
       </c>
       <c r="J12" t="n">
-        <v>68.20026375968141</v>
+        <v>68.20026375968139</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L12" t="n">
         <v>156.7361801876899</v>
@@ -31855,13 +31855,13 @@
         <v>187.7446469841394</v>
       </c>
       <c r="O12" t="n">
-        <v>171.7496730964875</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
         <v>137.8442543785808</v>
       </c>
       <c r="Q12" t="n">
-        <v>92.14523357605346</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R12" t="n">
         <v>44.81885398923217</v>
@@ -31870,10 +31870,10 @@
         <v>13.4082965982197</v>
       </c>
       <c r="T12" t="n">
-        <v>2.909616192152044</v>
+        <v>2.909616192152043</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04749101510585494</v>
+        <v>0.04749101510585493</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6051860504199654</v>
+        <v>0.6051860504199653</v>
       </c>
       <c r="H13" t="n">
-        <v>5.380654157370242</v>
+        <v>5.380654157370241</v>
       </c>
       <c r="I13" t="n">
         <v>18.1995950435386</v>
       </c>
       <c r="J13" t="n">
-        <v>42.78665376469155</v>
+        <v>42.78665376469154</v>
       </c>
       <c r="K13" t="n">
-        <v>70.31161567606506</v>
+        <v>70.31161567606505</v>
       </c>
       <c r="L13" t="n">
-        <v>89.97466062334651</v>
+        <v>89.97466062334649</v>
       </c>
       <c r="M13" t="n">
-        <v>94.86566424901329</v>
+        <v>94.86566424901328</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835713</v>
+        <v>92.60997078835712</v>
       </c>
       <c r="O13" t="n">
-        <v>85.54029738117842</v>
+        <v>85.54029738117841</v>
       </c>
       <c r="P13" t="n">
-        <v>73.19450195261106</v>
+        <v>73.19450195261105</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.67607918562093</v>
+        <v>50.67607918562091</v>
       </c>
       <c r="R13" t="n">
-        <v>27.21136550342862</v>
+        <v>27.21136550342861</v>
       </c>
       <c r="S13" t="n">
-        <v>10.54674235140976</v>
+        <v>10.54674235140975</v>
       </c>
       <c r="T13" t="n">
         <v>2.585794942703488</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03301014820472543</v>
+        <v>0.03301014820472542</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32007,10 +32007,10 @@
         <v>212.9073277935339</v>
       </c>
       <c r="M14" t="n">
-        <v>236.9004250205241</v>
+        <v>236.900425020524</v>
       </c>
       <c r="N14" t="n">
-        <v>240.7337215691253</v>
+        <v>240.7337215691252</v>
       </c>
       <c r="O14" t="n">
         <v>227.318026873075</v>
@@ -32022,7 +32022,7 @@
         <v>145.6939384646736</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180567</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S14" t="n">
         <v>30.74394900175945</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7218634296089949</v>
+        <v>0.7218634296089947</v>
       </c>
       <c r="H15" t="n">
-        <v>6.971681017539504</v>
+        <v>6.971681017539503</v>
       </c>
       <c r="I15" t="n">
-        <v>24.85363123873075</v>
+        <v>24.85363123873074</v>
       </c>
       <c r="J15" t="n">
-        <v>68.20026375968141</v>
+        <v>68.20026375968139</v>
       </c>
       <c r="K15" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
         <v>156.7361801876899</v>
@@ -32092,13 +32092,13 @@
         <v>187.7446469841394</v>
       </c>
       <c r="O15" t="n">
-        <v>171.7496730964875</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P15" t="n">
         <v>137.8442543785808</v>
       </c>
       <c r="Q15" t="n">
-        <v>92.14523357605346</v>
+        <v>92.14523357605344</v>
       </c>
       <c r="R15" t="n">
         <v>44.81885398923217</v>
@@ -32107,10 +32107,10 @@
         <v>13.4082965982197</v>
       </c>
       <c r="T15" t="n">
-        <v>2.909616192152044</v>
+        <v>2.909616192152043</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04749101510585494</v>
+        <v>0.04749101510585493</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6051860504199654</v>
+        <v>0.6051860504199653</v>
       </c>
       <c r="H16" t="n">
-        <v>5.380654157370242</v>
+        <v>5.380654157370241</v>
       </c>
       <c r="I16" t="n">
         <v>18.1995950435386</v>
       </c>
       <c r="J16" t="n">
-        <v>42.78665376469155</v>
+        <v>42.78665376469154</v>
       </c>
       <c r="K16" t="n">
-        <v>70.31161567606506</v>
+        <v>70.31161567606505</v>
       </c>
       <c r="L16" t="n">
-        <v>89.97466062334651</v>
+        <v>89.97466062334649</v>
       </c>
       <c r="M16" t="n">
-        <v>94.86566424901329</v>
+        <v>94.86566424901328</v>
       </c>
       <c r="N16" t="n">
-        <v>92.60997078835713</v>
+        <v>92.60997078835712</v>
       </c>
       <c r="O16" t="n">
-        <v>85.54029738117842</v>
+        <v>85.54029738117841</v>
       </c>
       <c r="P16" t="n">
-        <v>73.19450195261106</v>
+        <v>73.19450195261105</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.67607918562093</v>
+        <v>50.67607918562091</v>
       </c>
       <c r="R16" t="n">
-        <v>27.21136550342862</v>
+        <v>27.21136550342861</v>
       </c>
       <c r="S16" t="n">
-        <v>10.54674235140976</v>
+        <v>10.54674235140975</v>
       </c>
       <c r="T16" t="n">
         <v>2.585794942703488</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03301014820472543</v>
+        <v>0.03301014820472542</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.538305327701226</v>
+        <v>1.538305327701227</v>
       </c>
       <c r="H17" t="n">
-        <v>15.75416943732018</v>
+        <v>15.75416943732019</v>
       </c>
       <c r="I17" t="n">
-        <v>59.30551614620157</v>
+        <v>59.3055161462016</v>
       </c>
       <c r="J17" t="n">
-        <v>130.561741806982</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K17" t="n">
-        <v>195.678206328575</v>
+        <v>195.6782063285751</v>
       </c>
       <c r="L17" t="n">
-        <v>242.7561180012114</v>
+        <v>242.7561180012116</v>
       </c>
       <c r="M17" t="n">
-        <v>270.1129553727181</v>
+        <v>270.1129553727183</v>
       </c>
       <c r="N17" t="n">
-        <v>274.4836653850492</v>
+        <v>274.4836653850494</v>
       </c>
       <c r="O17" t="n">
-        <v>259.1871417827201</v>
+        <v>259.1871417827203</v>
       </c>
       <c r="P17" t="n">
-        <v>221.2102290050961</v>
+        <v>221.2102290050962</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.1196694567959</v>
+        <v>166.119669456796</v>
       </c>
       <c r="R17" t="n">
-        <v>96.63057204121222</v>
+        <v>96.63057204121228</v>
       </c>
       <c r="S17" t="n">
-        <v>35.05413265499172</v>
+        <v>35.05413265499174</v>
       </c>
       <c r="T17" t="n">
-        <v>6.73393157201212</v>
+        <v>6.733931572012124</v>
       </c>
       <c r="U17" t="n">
-        <v>0.123064426216098</v>
+        <v>0.1230644262160981</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8230659118922179</v>
+        <v>0.8230659118922184</v>
       </c>
       <c r="H18" t="n">
-        <v>7.949083938538001</v>
+        <v>7.949083938538005</v>
       </c>
       <c r="I18" t="n">
-        <v>28.33801494892067</v>
+        <v>28.33801494892068</v>
       </c>
       <c r="J18" t="n">
-        <v>77.76167898276434</v>
+        <v>77.76167898276438</v>
       </c>
       <c r="K18" t="n">
-        <v>132.9070950795429</v>
+        <v>132.907095079543</v>
       </c>
       <c r="L18" t="n">
-        <v>178.7099910887028</v>
+        <v>178.709991088703</v>
       </c>
       <c r="M18" t="n">
-        <v>208.5461303947957</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N18" t="n">
-        <v>214.0657259179677</v>
+        <v>214.0657259179678</v>
       </c>
       <c r="O18" t="n">
-        <v>195.8283180807769</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P18" t="n">
-        <v>157.1694897893131</v>
+        <v>157.1694897893132</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.0636416653996</v>
+        <v>105.0636416653997</v>
       </c>
       <c r="R18" t="n">
-        <v>51.1022853015186</v>
+        <v>51.10228530151863</v>
       </c>
       <c r="S18" t="n">
-        <v>15.28808831957693</v>
+        <v>15.28808831957694</v>
       </c>
       <c r="T18" t="n">
-        <v>3.317533215039246</v>
+        <v>3.317533215039247</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05414907315080383</v>
+        <v>0.05414907315080386</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6900308119545053</v>
+        <v>0.6900308119545057</v>
       </c>
       <c r="H19" t="n">
-        <v>6.135001219013697</v>
+        <v>6.1350012190137</v>
       </c>
       <c r="I19" t="n">
-        <v>20.7511084176864</v>
+        <v>20.75110841768641</v>
       </c>
       <c r="J19" t="n">
-        <v>48.78517840518352</v>
+        <v>48.78517840518355</v>
       </c>
       <c r="K19" t="n">
-        <v>80.16903433435068</v>
+        <v>80.16903433435074</v>
       </c>
       <c r="L19" t="n">
-        <v>102.5887627154907</v>
+        <v>102.5887627154908</v>
       </c>
       <c r="M19" t="n">
-        <v>108.1654662775594</v>
+        <v>108.1654662775595</v>
       </c>
       <c r="N19" t="n">
-        <v>105.5935332511836</v>
+        <v>105.5935332511837</v>
       </c>
       <c r="O19" t="n">
-        <v>97.53271876607866</v>
+        <v>97.53271876607872</v>
       </c>
       <c r="P19" t="n">
-        <v>83.45609020220668</v>
+        <v>83.45609020220672</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.78067099011771</v>
+        <v>57.78067099011775</v>
       </c>
       <c r="R19" t="n">
-        <v>31.02629450842711</v>
+        <v>31.02629450842713</v>
       </c>
       <c r="S19" t="n">
-        <v>12.0253551501526</v>
+        <v>12.02535515015261</v>
       </c>
       <c r="T19" t="n">
-        <v>2.948313469260158</v>
+        <v>2.94831346926016</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0376380442884276</v>
+        <v>0.03763804428842762</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.538305327701226</v>
+        <v>1.538305327701227</v>
       </c>
       <c r="H20" t="n">
-        <v>15.75416943732018</v>
+        <v>15.75416943732019</v>
       </c>
       <c r="I20" t="n">
-        <v>59.30551614620157</v>
+        <v>59.3055161462016</v>
       </c>
       <c r="J20" t="n">
-        <v>130.561741806982</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K20" t="n">
-        <v>195.678206328575</v>
+        <v>195.6782063285751</v>
       </c>
       <c r="L20" t="n">
-        <v>242.7561180012114</v>
+        <v>242.7561180012115</v>
       </c>
       <c r="M20" t="n">
-        <v>270.1129553727181</v>
+        <v>270.1129553727182</v>
       </c>
       <c r="N20" t="n">
-        <v>274.4836653850492</v>
+        <v>274.4836653850493</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827201</v>
+        <v>259.1871417827202</v>
       </c>
       <c r="P20" t="n">
-        <v>221.2102290050961</v>
+        <v>221.2102290050962</v>
       </c>
       <c r="Q20" t="n">
         <v>166.1196694567959</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121222</v>
+        <v>96.63057204121226</v>
       </c>
       <c r="S20" t="n">
-        <v>35.05413265499172</v>
+        <v>35.05413265499174</v>
       </c>
       <c r="T20" t="n">
-        <v>6.73393157201212</v>
+        <v>6.733931572012123</v>
       </c>
       <c r="U20" t="n">
-        <v>0.123064426216098</v>
+        <v>0.1230644262160981</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8230659118922179</v>
+        <v>0.8230659118922183</v>
       </c>
       <c r="H21" t="n">
-        <v>7.949083938538001</v>
+        <v>7.949083938538005</v>
       </c>
       <c r="I21" t="n">
-        <v>28.33801494892067</v>
+        <v>28.33801494892068</v>
       </c>
       <c r="J21" t="n">
-        <v>77.76167898276434</v>
+        <v>77.76167898276437</v>
       </c>
       <c r="K21" t="n">
-        <v>132.9070950795429</v>
+        <v>132.907095079543</v>
       </c>
       <c r="L21" t="n">
-        <v>178.7099910887028</v>
+        <v>178.7099910887029</v>
       </c>
       <c r="M21" t="n">
-        <v>208.5461303947957</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N21" t="n">
-        <v>214.0657259179677</v>
+        <v>214.0657259179678</v>
       </c>
       <c r="O21" t="n">
-        <v>195.8283180807769</v>
+        <v>195.828318080777</v>
       </c>
       <c r="P21" t="n">
-        <v>157.1694897893131</v>
+        <v>157.1694897893132</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.0636416653996</v>
+        <v>105.0636416653997</v>
       </c>
       <c r="R21" t="n">
-        <v>51.1022853015186</v>
+        <v>51.10228530151863</v>
       </c>
       <c r="S21" t="n">
-        <v>15.28808831957693</v>
+        <v>15.28808831957694</v>
       </c>
       <c r="T21" t="n">
-        <v>3.317533215039246</v>
+        <v>3.317533215039247</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05414907315080383</v>
+        <v>0.05414907315080385</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6900308119545053</v>
+        <v>0.6900308119545056</v>
       </c>
       <c r="H22" t="n">
-        <v>6.135001219013697</v>
+        <v>6.1350012190137</v>
       </c>
       <c r="I22" t="n">
-        <v>20.7511084176864</v>
+        <v>20.75110841768641</v>
       </c>
       <c r="J22" t="n">
-        <v>48.78517840518352</v>
+        <v>48.78517840518354</v>
       </c>
       <c r="K22" t="n">
-        <v>80.16903433435068</v>
+        <v>80.16903433435073</v>
       </c>
       <c r="L22" t="n">
-        <v>102.5887627154907</v>
+        <v>102.5887627154908</v>
       </c>
       <c r="M22" t="n">
         <v>108.1654662775594</v>
@@ -32645,25 +32645,25 @@
         <v>105.5935332511836</v>
       </c>
       <c r="O22" t="n">
-        <v>97.53271876607866</v>
+        <v>97.5327187660787</v>
       </c>
       <c r="P22" t="n">
-        <v>83.45609020220668</v>
+        <v>83.45609020220671</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.78067099011771</v>
+        <v>57.78067099011774</v>
       </c>
       <c r="R22" t="n">
-        <v>31.02629450842711</v>
+        <v>31.02629450842712</v>
       </c>
       <c r="S22" t="n">
-        <v>12.0253551501526</v>
+        <v>12.02535515015261</v>
       </c>
       <c r="T22" t="n">
-        <v>2.948313469260158</v>
+        <v>2.948313469260159</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0376380442884276</v>
+        <v>0.03763804428842762</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -32736,10 +32736,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,10 +32782,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32794,7 +32794,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -32812,16 +32812,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
         <v>128.7867795998885</v>
@@ -32888,10 +32888,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
         <v>14.66668190417549</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.1166813548411</v>
@@ -32973,10 +32973,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,10 +33019,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -33031,7 +33031,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -33049,16 +33049,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998885</v>
@@ -33125,10 +33125,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
         <v>14.66668190417549</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,10 +33256,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -33268,7 +33268,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,10 +33362,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
         <v>14.66668190417549</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33432,7 +33432,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,10 +33493,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33505,7 +33505,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -33523,16 +33523,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,10 +33599,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
         <v>14.66668190417549</v>
@@ -33611,7 +33611,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33669,7 +33669,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,10 +33730,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33742,7 +33742,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33760,16 +33760,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,10 +33836,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
         <v>14.66668190417549</v>
@@ -33848,7 +33848,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33906,7 +33906,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
@@ -33921,10 +33921,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,10 +33967,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -33979,7 +33979,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,10 +34073,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
         <v>14.66668190417549</v>
@@ -34085,7 +34085,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -34158,10 +34158,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,10 +34204,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34216,7 +34216,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -34234,16 +34234,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998885</v>
@@ -34310,10 +34310,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
         <v>14.66668190417549</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34868,10 +34868,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>371.7091627680287</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,7 +34938,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,10 +35175,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35254,25 +35254,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N9" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>33.39342414375217</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>223.0854642319582</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>51.60081105582554</v>
+        <v>51.60081105582553</v>
       </c>
       <c r="J11" t="n">
-        <v>114.5081400587199</v>
+        <v>114.5081400587201</v>
       </c>
       <c r="K11" t="n">
-        <v>171.6180187748791</v>
+        <v>171.6180187748789</v>
       </c>
       <c r="L11" t="n">
-        <v>212.9073277935339</v>
+        <v>212.907327793534</v>
       </c>
       <c r="M11" t="n">
-        <v>236.9004250205242</v>
+        <v>236.900425020524</v>
       </c>
       <c r="N11" t="n">
-        <v>240.7337215691252</v>
+        <v>240.7337215691254</v>
       </c>
       <c r="O11" t="n">
-        <v>227.318026873075</v>
+        <v>227.3180268730748</v>
       </c>
       <c r="P11" t="n">
         <v>194.0106767477459</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.6939384646737</v>
+        <v>145.6939384646735</v>
       </c>
       <c r="R11" t="n">
         <v>84.74907675180566</v>
@@ -35488,10 +35488,10 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J12" t="n">
-        <v>142.9019357296216</v>
+        <v>395.4481201532388</v>
       </c>
       <c r="K12" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L12" t="n">
         <v>156.7361801876899</v>
@@ -35503,10 +35503,10 @@
         <v>187.7446469841394</v>
       </c>
       <c r="O12" t="n">
-        <v>424.2958575201044</v>
+        <v>171.7496730964874</v>
       </c>
       <c r="P12" t="n">
-        <v>137.8442543785809</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q12" t="n">
         <v>92.14523357605344</v>
@@ -35570,28 +35570,28 @@
         <v>130.2408812037722</v>
       </c>
       <c r="K13" t="n">
-        <v>347.8454081721617</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L13" t="n">
-        <v>278.150881356786</v>
+        <v>89.97466062334649</v>
       </c>
       <c r="M13" t="n">
         <v>94.86566424901332</v>
       </c>
       <c r="N13" t="n">
-        <v>92.60997078835715</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O13" t="n">
-        <v>85.54029738117845</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P13" t="n">
-        <v>424.2115665691178</v>
+        <v>73.19450195261106</v>
       </c>
       <c r="Q13" t="n">
-        <v>220.5677709677748</v>
+        <v>89.31960944704815</v>
       </c>
       <c r="R13" t="n">
-        <v>6.007722421746784</v>
+        <v>6.007722421746777</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.60081105582554</v>
+        <v>51.60081105582553</v>
       </c>
       <c r="J14" t="n">
-        <v>114.5081400587198</v>
+        <v>114.5081400587199</v>
       </c>
       <c r="K14" t="n">
         <v>171.6180187748791</v>
@@ -35670,7 +35670,7 @@
         <v>145.6939384646735</v>
       </c>
       <c r="R14" t="n">
-        <v>84.74907675180589</v>
+        <v>84.74907675180566</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>51.18057382505155</v>
       </c>
       <c r="J15" t="n">
-        <v>395.4481201532384</v>
+        <v>395.4481201532388</v>
       </c>
       <c r="K15" t="n">
-        <v>116.5651135434841</v>
+        <v>116.565113543484</v>
       </c>
       <c r="L15" t="n">
         <v>156.7361801876899</v>
       </c>
       <c r="M15" t="n">
-        <v>182.903729511016</v>
+        <v>182.9037295110159</v>
       </c>
       <c r="N15" t="n">
         <v>187.7446469841394</v>
@@ -35743,7 +35743,7 @@
         <v>171.7496730964874</v>
       </c>
       <c r="P15" t="n">
-        <v>137.8442543785809</v>
+        <v>137.8442543785807</v>
       </c>
       <c r="Q15" t="n">
         <v>92.14523357605344</v>
@@ -35807,10 +35807,10 @@
         <v>130.2408812037722</v>
       </c>
       <c r="K16" t="n">
-        <v>347.8454081721617</v>
+        <v>347.8454081721616</v>
       </c>
       <c r="L16" t="n">
-        <v>278.150881356786</v>
+        <v>278.1508813567862</v>
       </c>
       <c r="M16" t="n">
         <v>94.86566424901332</v>
@@ -35828,7 +35828,7 @@
         <v>220.5677709677748</v>
       </c>
       <c r="R16" t="n">
-        <v>6.007722421746784</v>
+        <v>6.007722421746777</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>58.89289466707017</v>
+        <v>58.89289466707021</v>
       </c>
       <c r="J17" t="n">
-        <v>130.561741806982</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K17" t="n">
-        <v>195.678206328575</v>
+        <v>195.6782063285751</v>
       </c>
       <c r="L17" t="n">
-        <v>242.7561180012115</v>
+        <v>242.7561180012116</v>
       </c>
       <c r="M17" t="n">
-        <v>270.112955372718</v>
+        <v>270.1129553727183</v>
       </c>
       <c r="N17" t="n">
         <v>274.4836653850493</v>
       </c>
       <c r="O17" t="n">
-        <v>259.1871417827201</v>
+        <v>259.1871417827203</v>
       </c>
       <c r="P17" t="n">
         <v>221.2102290050962</v>
@@ -35907,7 +35907,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R17" t="n">
-        <v>96.63057204121219</v>
+        <v>96.63057204121242</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>54.66495753524148</v>
+        <v>54.66495753524149</v>
       </c>
       <c r="J18" t="n">
-        <v>77.76167898276435</v>
+        <v>235.6372871877844</v>
       </c>
       <c r="K18" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L18" t="n">
-        <v>178.7099910887028</v>
+        <v>178.709991088703</v>
       </c>
       <c r="M18" t="n">
-        <v>208.5461303947957</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N18" t="n">
-        <v>214.0657259179677</v>
+        <v>214.0657259179678</v>
       </c>
       <c r="O18" t="n">
-        <v>195.828318080777</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P18" t="n">
-        <v>157.169489789313</v>
+        <v>157.1694897893133</v>
       </c>
       <c r="Q18" t="n">
-        <v>262.9392498704206</v>
+        <v>105.0636416653997</v>
       </c>
       <c r="R18" t="n">
         <v>169.4586268109526</v>
@@ -36044,13 +36044,13 @@
         <v>136.2394058442642</v>
       </c>
       <c r="K19" t="n">
-        <v>357.7028268304472</v>
+        <v>357.7028268304473</v>
       </c>
       <c r="L19" t="n">
-        <v>438.4310738601672</v>
+        <v>438.4310738601679</v>
       </c>
       <c r="M19" t="n">
-        <v>108.1654662775594</v>
+        <v>108.1654662775595</v>
       </c>
       <c r="N19" t="n">
         <v>105.5935332511835</v>
@@ -36065,7 +36065,7 @@
         <v>227.6723627722715</v>
       </c>
       <c r="R19" t="n">
-        <v>9.822651426745278</v>
+        <v>9.822651426745296</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>58.89289466707017</v>
+        <v>58.8928946670702</v>
       </c>
       <c r="J20" t="n">
-        <v>130.561741806982</v>
+        <v>130.5617418069821</v>
       </c>
       <c r="K20" t="n">
-        <v>195.678206328575</v>
+        <v>195.6782063285751</v>
       </c>
       <c r="L20" t="n">
-        <v>242.7561180012113</v>
+        <v>242.7561180012115</v>
       </c>
       <c r="M20" t="n">
-        <v>270.112955372718</v>
+        <v>270.1129553727183</v>
       </c>
       <c r="N20" t="n">
         <v>274.4836653850493</v>
       </c>
       <c r="O20" t="n">
-        <v>259.1871417827199</v>
+        <v>259.1871417827201</v>
       </c>
       <c r="P20" t="n">
         <v>221.2102290050962</v>
@@ -36144,7 +36144,7 @@
         <v>166.1196694567959</v>
       </c>
       <c r="R20" t="n">
-        <v>96.63057204121242</v>
+        <v>96.63057204121219</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>54.66495753524148</v>
+        <v>54.66495753524149</v>
       </c>
       <c r="J21" t="n">
-        <v>235.6372871877853</v>
+        <v>235.6372871877848</v>
       </c>
       <c r="K21" t="n">
         <v>132.907095079543</v>
       </c>
       <c r="L21" t="n">
-        <v>178.7099910887028</v>
+        <v>178.709991088703</v>
       </c>
       <c r="M21" t="n">
-        <v>208.5461303947957</v>
+        <v>208.5461303947958</v>
       </c>
       <c r="N21" t="n">
         <v>214.0657259179677</v>
       </c>
       <c r="O21" t="n">
-        <v>195.8283180807769</v>
+        <v>195.8283180807771</v>
       </c>
       <c r="P21" t="n">
         <v>157.169489789313</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>48.78517840518353</v>
+        <v>48.78517840518354</v>
       </c>
       <c r="K22" t="n">
-        <v>80.16903433435067</v>
+        <v>80.16903433435073</v>
       </c>
       <c r="L22" t="n">
-        <v>102.5887627154908</v>
+        <v>184.2342149870746</v>
       </c>
       <c r="M22" t="n">
-        <v>483.7951178339174</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="N22" t="n">
-        <v>483.7951178339174</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="O22" t="n">
-        <v>97.53271876607869</v>
+        <v>483.7951178339176</v>
       </c>
       <c r="P22" t="n">
-        <v>434.4731548187135</v>
+        <v>83.45609020220672</v>
       </c>
       <c r="Q22" t="n">
-        <v>174.6714577130333</v>
+        <v>57.78067099011764</v>
       </c>
       <c r="R22" t="n">
-        <v>9.822651426745278</v>
+        <v>9.822651426745288</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36439,10 +36439,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409515</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>164.7144797430606</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,7 +36594,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>167.0540751263765</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
         <v>575.512843395489</v>
@@ -36770,7 +36770,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36834,13 +36834,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,10 +36849,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879476</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415864</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,13 +36928,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409518</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
@@ -37007,7 +37007,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37068,10 +37068,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>167.0540751263765</v>
+        <v>167.0540751263763</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37238,7 +37238,7 @@
         <v>590.0818943619344</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37305,16 +37305,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>259.9914571795434</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>70.4719911420766</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2173017445504</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>296.1475206512694</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,19 +38016,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38037,7 +38037,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409513</v>
+        <v>300.8399982398718</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
